--- a/query-reduction-results.xlsx
+++ b/query-reduction-results.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florian/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florian/projects/fh/master-thesis-graphql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6019F68-04A9-0643-A05E-459CFB0B502C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36FCF27-6D4F-C148-97C2-5638317F0B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="76800" windowHeight="31500" xr2:uid="{AE6E3211-F782-5F4C-B9E1-338AA6603C2D}"/>
+    <workbookView xWindow="33600" yWindow="500" windowWidth="33600" windowHeight="27500" xr2:uid="{AE6E3211-F782-5F4C-B9E1-338AA6603C2D}"/>
   </bookViews>
   <sheets>
     <sheet name="First Path" sheetId="1" r:id="rId1"/>
     <sheet name="Second Path" sheetId="2" r:id="rId2"/>
     <sheet name="Reduce Comparison" sheetId="4" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">'First Path'!$AA$21:$AA$23</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'First Path'!$Z$21:$Z$23</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -765,7 +761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -822,6 +818,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -831,10 +828,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -846,7 +843,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2874,7 +2872,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3162,7 +3160,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3403,8 +3401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BF34E6-658D-5C4E-A515-16DA469C88DF}">
   <dimension ref="A1:AC58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="Z39" sqref="Z39"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3439,26 +3437,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
       <c r="F1" s="10"/>
-      <c r="G1" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
+      <c r="G1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
       <c r="K1" s="12"/>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="52"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="53"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
@@ -3555,7 +3553,7 @@
         <v>32</v>
       </c>
       <c r="W3">
-        <v>61426</v>
+        <v>81510</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
@@ -3612,6 +3610,10 @@
       <c r="W4">
         <v>51319</v>
       </c>
+      <c r="X4">
+        <f>1-W4/W3</f>
+        <v>0.37039627039627043</v>
+      </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -3669,7 +3671,7 @@
       </c>
       <c r="W5" s="2">
         <f>W3-W4</f>
-        <v>10107</v>
+        <v>30191</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
@@ -4512,6 +4514,9 @@
       <c r="L21" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="M21" s="60">
+        <v>10000</v>
+      </c>
       <c r="N21">
         <v>128</v>
       </c>
@@ -4521,11 +4526,11 @@
       <c r="Z21" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AA21" s="58">
+      <c r="AA21" s="50">
         <f>13533/1000</f>
         <v>13.532999999999999</v>
       </c>
-      <c r="AB21" s="58">
+      <c r="AB21" s="50">
         <f>8374763/1000000</f>
         <v>8.3747629999999997</v>
       </c>
@@ -4575,11 +4580,11 @@
       <c r="Z22" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AA22" s="58">
+      <c r="AA22" s="50">
         <f>15176/1000</f>
         <v>15.176</v>
       </c>
-      <c r="AB22" s="58">
+      <c r="AB22" s="50">
         <f>8437211/1000000</f>
         <v>8.4372109999999996</v>
       </c>
@@ -4617,6 +4622,9 @@
       <c r="L23" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="M23" s="59">
+        <v>84</v>
+      </c>
       <c r="N23">
         <v>119</v>
       </c>
@@ -4626,11 +4634,11 @@
       <c r="Z23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AA23" s="58">
+      <c r="AA23" s="50">
         <f>17462/1000</f>
         <v>17.462</v>
       </c>
-      <c r="AB23" s="58">
+      <c r="AB23" s="50">
         <f>10780656/1000000</f>
         <v>10.780656</v>
       </c>
@@ -5336,6 +5344,9 @@
       <c r="L44" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="M44" s="59">
+        <v>10000</v>
+      </c>
       <c r="N44">
         <v>128</v>
       </c>
@@ -5528,7 +5539,7 @@
       </c>
       <c r="M53">
         <f>SUM(M3:M49)</f>
-        <v>61426</v>
+        <v>81510</v>
       </c>
       <c r="N53">
         <f>SUM(N3:N52)</f>
@@ -5596,7 +5607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FA2F39-706D-F543-87F8-5CFD39BD3134}">
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
@@ -5632,25 +5643,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="52"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="53"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="52"/>
-      <c r="L1" s="51" t="s">
+      <c r="G1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="53"/>
+      <c r="L1" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="52"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="53"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
@@ -8019,13 +8030,13 @@
       </c>
       <c r="H1" s="54"/>
       <c r="I1" s="54"/>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
@@ -8555,12 +8566,12 @@
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
       <c r="E15" s="38"/>
-      <c r="K15" s="53" t="s">
+      <c r="K15" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
       <c r="O15" s="43">
         <f>12/43</f>
         <v>0.27906976744186046</v>
@@ -9107,12 +9118,12 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="K33" s="53" t="s">
+      <c r="K33" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
       <c r="O33" s="43">
         <f>13/38</f>
         <v>0.34210526315789475</v>
@@ -9658,12 +9669,12 @@
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="K51" s="53" t="s">
+      <c r="K51" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="L51" s="53"/>
-      <c r="M51" s="53"/>
-      <c r="N51" s="53"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="55"/>
       <c r="O51" s="43">
         <f>10/17</f>
         <v>0.58823529411764708</v>
@@ -9681,13 +9692,13 @@
       </c>
       <c r="H54" s="54"/>
       <c r="I54" s="54"/>
-      <c r="K54" s="55" t="s">
+      <c r="K54" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="L54" s="56"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="57"/>
+      <c r="L54" s="57"/>
+      <c r="M54" s="57"/>
+      <c r="N54" s="57"/>
+      <c r="O54" s="58"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" s="5"/>
@@ -10209,12 +10220,12 @@
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="K68" s="53" t="s">
+      <c r="K68" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="L68" s="53"/>
-      <c r="M68" s="53"/>
-      <c r="N68" s="53"/>
+      <c r="L68" s="55"/>
+      <c r="M68" s="55"/>
+      <c r="N68" s="55"/>
       <c r="O68" s="43">
         <f>8/16</f>
         <v>0.5</v>
@@ -10222,6 +10233,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K54:O54"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K51:N51"/>
     <mergeCell ref="C54:E54"/>
     <mergeCell ref="G54:I54"/>
     <mergeCell ref="C1:E1"/>
@@ -10230,14 +10249,6 @@
     <mergeCell ref="G37:I37"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C37:E37"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K54:O54"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K51:N51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/query-reduction-results.xlsx
+++ b/query-reduction-results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florian/projects/fh/master-thesis-graphql/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florian/projects/private/master-thesis-graphql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36FCF27-6D4F-C148-97C2-5638317F0B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AD4F1C-D80F-524F-A987-8FAC988A4DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="500" windowWidth="33600" windowHeight="27500" xr2:uid="{AE6E3211-F782-5F4C-B9E1-338AA6603C2D}"/>
+    <workbookView xWindow="18000" yWindow="880" windowWidth="18000" windowHeight="22500" activeTab="1" xr2:uid="{AE6E3211-F782-5F4C-B9E1-338AA6603C2D}"/>
   </bookViews>
   <sheets>
     <sheet name="First Path" sheetId="1" r:id="rId1"/>
@@ -315,7 +315,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="56">
   <si>
     <t>Reduction, Shared Cache</t>
   </si>
@@ -480,6 +480,9 @@
   </si>
   <si>
     <t>Response Diff %</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -761,7 +764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -828,10 +831,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -843,12 +846,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -866,7 +867,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -933,7 +934,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-AT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -988,7 +989,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-AT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1115,7 +1116,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-AT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="254069328"/>
@@ -1197,7 +1198,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-AT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1229,7 +1230,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-AT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="254067680"/>
@@ -1270,7 +1271,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-AT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1284,7 +1285,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1351,7 +1352,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-AT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1404,7 +1405,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-AT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1531,7 +1532,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-AT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="254194624"/>
@@ -1618,7 +1619,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-AT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1650,7 +1651,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-AT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="254192976"/>
@@ -1691,7 +1692,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-AT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3401,8 +3402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BF34E6-658D-5C4E-A515-16DA469C88DF}">
   <dimension ref="A1:AC58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView topLeftCell="B21" zoomScale="106" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4514,7 +4515,7 @@
       <c r="L21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M21" s="60">
+      <c r="M21">
         <v>10000</v>
       </c>
       <c r="N21">
@@ -4622,7 +4623,7 @@
       <c r="L23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M23" s="59">
+      <c r="M23">
         <v>84</v>
       </c>
       <c r="N23">
@@ -5344,7 +5345,7 @@
       <c r="L44" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M44" s="59">
+      <c r="M44">
         <v>10000</v>
       </c>
       <c r="N44">
@@ -5607,8 +5608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FA2F39-706D-F543-87F8-5CFD39BD3134}">
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+    <sheetView tabSelected="1" topLeftCell="H35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M67" sqref="M67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6350,6 +6351,9 @@
       <c r="O13" s="14">
         <v>180</v>
       </c>
+      <c r="W13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -7906,8 +7910,8 @@
         <v>33</v>
       </c>
       <c r="C67">
-        <f>SUM(C41:C66)</f>
-        <v>30003</v>
+        <f>SUM(C3:C66)</f>
+        <v>50924</v>
       </c>
       <c r="D67">
         <f>SUM(D3:D66)</f>
@@ -7924,8 +7928,8 @@
         <v>33</v>
       </c>
       <c r="H67">
-        <f>SUM(H41:H66)</f>
-        <v>30003</v>
+        <f>SUM(H3:H66)</f>
+        <v>50924</v>
       </c>
       <c r="I67">
         <f>SUM(I3:I66)</f>
@@ -7942,8 +7946,8 @@
         <v>33</v>
       </c>
       <c r="M67">
-        <f>SUM(M29:M66)</f>
-        <v>60809</v>
+        <f>SUM(M3:M66)</f>
+        <v>81325</v>
       </c>
       <c r="N67">
         <f>SUM(N3:N66)</f>
@@ -8020,16 +8024,16 @@
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B1" s="5"/>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="G1" s="54" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="G1" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
       <c r="K1" s="52" t="s">
         <v>36</v>
       </c>
@@ -8566,12 +8570,12 @@
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
       <c r="E15" s="38"/>
-      <c r="K15" s="55" t="s">
+      <c r="K15" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
       <c r="O15" s="43">
         <f>12/43</f>
         <v>0.27906976744186046</v>
@@ -8579,23 +8583,23 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="G19" s="54" t="s">
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="G19" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="K19" s="54" t="s">
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="K19" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
@@ -9118,12 +9122,12 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="K33" s="55" t="s">
+      <c r="K33" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
       <c r="O33" s="43">
         <f>13/38</f>
         <v>0.34210526315789475</v>
@@ -9131,23 +9135,23 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="5"/>
-      <c r="C37" s="54" t="s">
+      <c r="C37" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="G37" s="54" t="s">
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="G37" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="K37" s="54" t="s">
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="K37" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="54"/>
-      <c r="O37" s="54"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="55"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="5"/>
@@ -9669,12 +9673,12 @@
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="K51" s="55" t="s">
+      <c r="K51" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="L51" s="55"/>
-      <c r="M51" s="55"/>
-      <c r="N51" s="55"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
       <c r="O51" s="43">
         <f>10/17</f>
         <v>0.58823529411764708</v>
@@ -9682,16 +9686,16 @@
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" s="5"/>
-      <c r="C54" s="54" t="s">
+      <c r="C54" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="G54" s="54" t="s">
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="G54" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55"/>
       <c r="K54" s="56" t="s">
         <v>36</v>
       </c>
@@ -10220,12 +10224,12 @@
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="K68" s="55" t="s">
+      <c r="K68" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="L68" s="55"/>
-      <c r="M68" s="55"/>
-      <c r="N68" s="55"/>
+      <c r="L68" s="54"/>
+      <c r="M68" s="54"/>
+      <c r="N68" s="54"/>
       <c r="O68" s="43">
         <f>8/16</f>
         <v>0.5</v>
@@ -10233,6 +10237,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C37:E37"/>
     <mergeCell ref="K68:N68"/>
     <mergeCell ref="K19:O19"/>
     <mergeCell ref="K1:O1"/>
@@ -10241,14 +10253,6 @@
     <mergeCell ref="K15:N15"/>
     <mergeCell ref="K33:N33"/>
     <mergeCell ref="K51:N51"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C37:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/query-reduction-results.xlsx
+++ b/query-reduction-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florian/projects/fh/master-thesis-graphql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62414DE-923C-E840-B4C0-6C53E45994C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D677BB45-6201-C74A-BF4E-EC49B5C5E9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="500" windowWidth="33600" windowHeight="27500" xr2:uid="{AE6E3211-F782-5F4C-B9E1-338AA6603C2D}"/>
+    <workbookView xWindow="33600" yWindow="500" windowWidth="33600" windowHeight="27500" activeTab="1" xr2:uid="{AE6E3211-F782-5F4C-B9E1-338AA6603C2D}"/>
   </bookViews>
   <sheets>
     <sheet name="First Path" sheetId="1" r:id="rId1"/>
@@ -317,7 +317,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="142">
   <si>
     <t>Reduction, Shared Cache</t>
   </si>
@@ -482,9 +482,6 @@
   </si>
   <si>
     <t>Response Diff %</t>
-  </si>
-  <si>
-    <t>d</t>
   </si>
   <si>
     <t>localhost</t>
@@ -1096,7 +1093,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1149,6 +1146,19 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1158,10 +1168,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1173,29 +1183,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -22150,7 +22139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BF34E6-658D-5C4E-A515-16DA469C88DF}">
   <dimension ref="A1:AH58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="106" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="106" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
@@ -22191,37 +22180,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="66"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="51"/>
       <c r="G1" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
       <c r="M1" s="10"/>
       <c r="N1" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O1" s="8"/>
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="50"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="59"/>
       <c r="T1" s="8"/>
       <c r="U1" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
@@ -22237,13 +22226,12 @@
       <c r="E2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="62"/>
       <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
@@ -22256,11 +22244,11 @@
       <c r="L2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="64" t="s">
+      <c r="M2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="N2" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="N2" s="65" t="s">
-        <v>141</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="7" t="s">
@@ -22275,13 +22263,13 @@
       <c r="S2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="68" t="s">
+      <c r="T2" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="U2" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="U2" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="V2" s="60"/>
+      <c r="V2" s="2"/>
       <c r="AB2" t="s">
         <v>45</v>
       </c>
@@ -22310,7 +22298,6 @@
         <f>F3/0.1875</f>
         <v>8.0533333333333336E-4</v>
       </c>
-      <c r="H3" s="62"/>
       <c r="I3" t="s">
         <v>7</v>
       </c>
@@ -22389,7 +22376,6 @@
         <f t="shared" ref="G4:G49" si="1">F4/0.1875</f>
         <v>8.0533333333333336E-4</v>
       </c>
-      <c r="H4" s="62"/>
       <c r="I4" t="s">
         <v>8</v>
       </c>
@@ -22472,7 +22458,6 @@
         <f t="shared" si="1"/>
         <v>8.1056000000000003E-2</v>
       </c>
-      <c r="H5" s="62"/>
       <c r="I5" t="s">
         <v>9</v>
       </c>
@@ -22555,7 +22540,6 @@
         <f t="shared" si="1"/>
         <v>6.0809973333333334</v>
       </c>
-      <c r="H6" s="62"/>
       <c r="I6" t="s">
         <v>10</v>
       </c>
@@ -22631,7 +22615,6 @@
         <f t="shared" si="1"/>
         <v>1.6714666666666666E-2</v>
       </c>
-      <c r="H7" s="62"/>
       <c r="I7" t="s">
         <v>11</v>
       </c>
@@ -22698,7 +22681,6 @@
         <f t="shared" si="1"/>
         <v>0.18653333333333333</v>
       </c>
-      <c r="H8" s="62"/>
       <c r="I8" t="s">
         <v>12</v>
       </c>
@@ -22786,7 +22768,6 @@
         <f t="shared" si="1"/>
         <v>7.8623999999999999E-2</v>
       </c>
-      <c r="H9" s="62"/>
       <c r="I9" t="s">
         <v>13</v>
       </c>
@@ -22880,7 +22861,6 @@
         <f t="shared" si="1"/>
         <v>14.824629333333334</v>
       </c>
-      <c r="H10" s="62"/>
       <c r="I10" t="s">
         <v>14</v>
       </c>
@@ -22974,7 +22954,6 @@
         <f t="shared" si="1"/>
         <v>2.3234933333333334</v>
       </c>
-      <c r="H11" s="62"/>
       <c r="I11" t="s">
         <v>15</v>
       </c>
@@ -23083,7 +23062,6 @@
         <f t="shared" si="1"/>
         <v>1.3866666666666665E-3</v>
       </c>
-      <c r="H12" s="62"/>
       <c r="I12" t="s">
         <v>16</v>
       </c>
@@ -23177,7 +23155,6 @@
         <f t="shared" si="1"/>
         <v>1.4133333333333333E-3</v>
       </c>
-      <c r="H13" s="62"/>
       <c r="I13" t="s">
         <v>17</v>
       </c>
@@ -23244,7 +23221,6 @@
         <f t="shared" si="1"/>
         <v>7.409408</v>
       </c>
-      <c r="H14" s="62"/>
       <c r="I14" t="s">
         <v>18</v>
       </c>
@@ -23311,7 +23287,6 @@
         <f t="shared" si="1"/>
         <v>3.9253333333333336E-3</v>
       </c>
-      <c r="H15" s="62"/>
       <c r="I15" t="s">
         <v>19</v>
       </c>
@@ -23378,7 +23353,6 @@
         <f t="shared" si="1"/>
         <v>1.0986666666666666E-3</v>
       </c>
-      <c r="H16" s="62"/>
       <c r="I16" t="s">
         <v>20</v>
       </c>
@@ -23445,7 +23419,6 @@
         <f t="shared" si="1"/>
         <v>7.2223999999999997E-2</v>
       </c>
-      <c r="H17" s="62"/>
       <c r="I17" t="s">
         <v>21</v>
       </c>
@@ -23579,7 +23552,6 @@
         <f t="shared" si="1"/>
         <v>3.8933333333333333E-4</v>
       </c>
-      <c r="H19" s="62"/>
       <c r="I19" t="s">
         <v>3</v>
       </c>
@@ -23646,7 +23618,6 @@
         <f t="shared" si="1"/>
         <v>8.4197333333333332E-2</v>
       </c>
-      <c r="H20" s="62"/>
       <c r="I20" t="s">
         <v>23</v>
       </c>
@@ -23722,7 +23693,6 @@
         <f t="shared" si="1"/>
         <v>3.8933333333333333E-4</v>
       </c>
-      <c r="H21" s="62"/>
       <c r="I21" t="s">
         <v>3</v>
       </c>
@@ -23800,7 +23770,6 @@
         <f t="shared" si="1"/>
         <v>0.22492800000000002</v>
       </c>
-      <c r="H22" s="62"/>
       <c r="I22" t="s">
         <v>23</v>
       </c>
@@ -23878,7 +23847,7 @@
         <f t="shared" si="1"/>
         <v>4.8853333333333335E-3</v>
       </c>
-      <c r="H23" s="63"/>
+      <c r="H23" s="21"/>
       <c r="I23" s="21" t="s">
         <v>24</v>
       </c>
@@ -23942,7 +23911,6 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H24" s="62"/>
       <c r="M24" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -23983,7 +23951,6 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H25" s="62"/>
       <c r="M25" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -24087,7 +24054,6 @@
         <f t="shared" si="1"/>
         <v>3.8933333333333333E-4</v>
       </c>
-      <c r="H27" s="62"/>
       <c r="I27" t="s">
         <v>4</v>
       </c>
@@ -24154,7 +24120,6 @@
         <f t="shared" si="1"/>
         <v>0.35852800000000001</v>
       </c>
-      <c r="H28" s="62"/>
       <c r="I28" t="s">
         <v>25</v>
       </c>
@@ -24221,7 +24186,6 @@
         <f t="shared" si="1"/>
         <v>3.8933333333333333E-4</v>
       </c>
-      <c r="H29" s="62"/>
       <c r="I29" t="s">
         <v>4</v>
       </c>
@@ -24288,7 +24252,6 @@
         <f t="shared" si="1"/>
         <v>0.39995200000000003</v>
       </c>
-      <c r="H30" s="62"/>
       <c r="I30" t="s">
         <v>25</v>
       </c>
@@ -24355,7 +24318,7 @@
         <f t="shared" si="1"/>
         <v>9.7280000000000005E-3</v>
       </c>
-      <c r="H31" s="63"/>
+      <c r="H31" s="21"/>
       <c r="I31" s="21" t="s">
         <v>26</v>
       </c>
@@ -24422,7 +24385,6 @@
         <f t="shared" si="1"/>
         <v>3.9466666666666665E-4</v>
       </c>
-      <c r="H32" s="62"/>
       <c r="I32" t="s">
         <v>5</v>
       </c>
@@ -24489,7 +24451,6 @@
         <f t="shared" si="1"/>
         <v>0.17195733333333332</v>
       </c>
-      <c r="H33" s="62"/>
       <c r="I33" t="s">
         <v>27</v>
       </c>
@@ -24556,7 +24517,6 @@
         <f t="shared" si="1"/>
         <v>3.9466666666666665E-4</v>
       </c>
-      <c r="H34" s="62"/>
       <c r="I34" t="s">
         <v>5</v>
       </c>
@@ -24623,7 +24583,6 @@
         <f t="shared" si="1"/>
         <v>0.2764746666666667</v>
       </c>
-      <c r="H35" s="62"/>
       <c r="I35" t="s">
         <v>27</v>
       </c>
@@ -24690,7 +24649,7 @@
         <f t="shared" si="1"/>
         <v>1.4933333333333333E-3</v>
       </c>
-      <c r="H36" s="63"/>
+      <c r="H36" s="21"/>
       <c r="I36" s="21" t="s">
         <v>28</v>
       </c>
@@ -24743,7 +24702,6 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H37" s="62"/>
       <c r="M37" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -24784,7 +24742,6 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H38" s="62"/>
       <c r="M38" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -24825,7 +24782,6 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H39" s="62"/>
       <c r="M39" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -24866,7 +24822,6 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H40" s="62"/>
       <c r="M40" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -24970,7 +24925,6 @@
         <f t="shared" si="1"/>
         <v>3.7333333333333332E-4</v>
       </c>
-      <c r="H42" s="62"/>
       <c r="I42" t="s">
         <v>6</v>
       </c>
@@ -25037,7 +24991,6 @@
         <f t="shared" si="1"/>
         <v>0.13269866666666666</v>
       </c>
-      <c r="H43" s="62"/>
       <c r="I43" t="s">
         <v>29</v>
       </c>
@@ -25104,7 +25057,6 @@
         <f t="shared" si="1"/>
         <v>3.7333333333333332E-4</v>
       </c>
-      <c r="H44" s="62"/>
       <c r="I44" t="s">
         <v>6</v>
       </c>
@@ -25171,7 +25123,6 @@
         <f t="shared" si="1"/>
         <v>0.16893866666666668</v>
       </c>
-      <c r="H45" s="62"/>
       <c r="I45" t="s">
         <v>29</v>
       </c>
@@ -25238,7 +25189,7 @@
         <f t="shared" si="1"/>
         <v>1.9466666666666666E-3</v>
       </c>
-      <c r="H46" s="63"/>
+      <c r="H46" s="21"/>
       <c r="I46" s="21" t="s">
         <v>30</v>
       </c>
@@ -25290,7 +25241,6 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H47" s="62"/>
       <c r="M47" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -25330,7 +25280,6 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H48" s="62"/>
       <c r="M48" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -25401,11 +25350,11 @@
       <c r="S49" s="25">
         <v>612</v>
       </c>
-      <c r="T49" s="70">
+      <c r="T49" s="55">
         <f t="shared" si="5"/>
         <v>6.1200000000000002E-4</v>
       </c>
-      <c r="U49" s="67">
+      <c r="U49" s="52">
         <f t="shared" si="4"/>
         <v>3.264E-3</v>
       </c>
@@ -25429,7 +25378,7 @@
       <c r="F53" t="s">
         <v>42</v>
       </c>
-      <c r="G53" s="71">
+      <c r="G53" s="56">
         <f>SUM(G3:G49)</f>
         <v>44.665402666666672</v>
       </c>
@@ -25451,7 +25400,7 @@
       <c r="M53" t="s">
         <v>42</v>
       </c>
-      <c r="N53" s="59">
+      <c r="N53" s="50">
         <f>SUM(N3:N49)</f>
         <v>44.998458666666664</v>
       </c>
@@ -25473,7 +25422,7 @@
       <c r="T53" t="s">
         <v>42</v>
       </c>
-      <c r="U53" s="59">
+      <c r="U53" s="50">
         <f>SUM(U3:U49)</f>
         <v>57.496831999999991</v>
       </c>
@@ -25532,8 +25481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FA2F39-706D-F543-87F8-5CFD39BD3134}">
   <dimension ref="A1:AI68"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U67" sqref="U67"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25572,29 +25521,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="P1" s="49" t="s">
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="P1" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="50"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="59"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
@@ -25609,11 +25558,11 @@
       <c r="E2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="G2" s="65" t="s">
-        <v>141</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="7" t="s">
@@ -25628,11 +25577,11 @@
       <c r="L2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="64" t="s">
+      <c r="M2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="N2" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="N2" s="65" t="s">
-        <v>141</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>2</v>
@@ -25646,11 +25595,11 @@
       <c r="S2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="64" t="s">
+      <c r="T2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="U2" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="U2" s="65" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
@@ -26565,9 +26514,6 @@
         <f t="shared" si="5"/>
         <v>9.6000000000000002E-4</v>
       </c>
-      <c r="AC13" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -26633,9 +26579,29 @@
         <f t="shared" si="5"/>
         <v>3.8933333333333333E-4</v>
       </c>
+      <c r="Y14">
+        <f>1-(Y10/Y9)</f>
+        <v>0.12828713574982231</v>
+      </c>
+      <c r="Z14">
+        <f>1-(Z10/Z9)</f>
+        <v>3.7181316663348341E-4</v>
+      </c>
+      <c r="AC14">
+        <f>1-(AC10/AC9)</f>
+        <v>0.35883249836636899</v>
+      </c>
       <c r="AD14">
         <f>1-(AD10/AD9)</f>
         <v>0.21953992904523201</v>
+      </c>
+      <c r="AG14">
+        <f>1-(AG10/AG9)</f>
+        <v>0.26447397081245916</v>
+      </c>
+      <c r="AH14">
+        <f>1-(AH10/AH9)</f>
+        <v>0.21924963577996104</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
@@ -29359,7 +29325,7 @@
         <f>SUM(E3:E66)</f>
         <v>8361306</v>
       </c>
-      <c r="G67" s="59">
+      <c r="G67" s="50">
         <f>SUM(G3:G63)</f>
         <v>44.593632000000007</v>
       </c>
@@ -29378,7 +29344,7 @@
         <f>SUM(L3:L66)</f>
         <v>8364416</v>
       </c>
-      <c r="N67" s="59">
+      <c r="N67" s="50">
         <f>SUM(N3:N64)</f>
         <v>44.610218666666668</v>
       </c>
@@ -29400,7 +29366,7 @@
       <c r="T67" t="s">
         <v>42</v>
       </c>
-      <c r="U67" s="59">
+      <c r="U67" s="50">
         <f>SUM(U3:U64)</f>
         <v>57.137621333333314</v>
       </c>
@@ -29462,23 +29428,23 @@
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B1" s="5"/>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="G1" s="51" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="G1" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="K1" s="49" t="s">
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="K1" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
@@ -30008,12 +29974,12 @@
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
       <c r="E15" s="35"/>
-      <c r="K15" s="52" t="s">
+      <c r="K15" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="40">
         <f>12/43</f>
         <v>0.27906976744186046</v>
@@ -30021,23 +29987,23 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="G19" s="51" t="s">
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="G19" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="K19" s="51" t="s">
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="K19" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
@@ -30560,12 +30526,12 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="K33" s="52" t="s">
+      <c r="K33" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="60"/>
       <c r="O33" s="40">
         <f>13/38</f>
         <v>0.34210526315789475</v>
@@ -30573,23 +30539,23 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="5"/>
-      <c r="C37" s="51" t="s">
+      <c r="C37" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="G37" s="51" t="s">
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="G37" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="K37" s="51" t="s">
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="K37" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="51"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="61"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="5"/>
@@ -31111,12 +31077,12 @@
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="K51" s="52" t="s">
+      <c r="K51" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="L51" s="52"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="52"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="60"/>
       <c r="O51" s="40">
         <f>10/17</f>
         <v>0.58823529411764708</v>
@@ -31124,23 +31090,23 @@
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" s="5"/>
-      <c r="C54" s="51" t="s">
+      <c r="C54" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="G54" s="51" t="s">
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="G54" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="H54" s="51"/>
-      <c r="I54" s="51"/>
-      <c r="K54" s="53" t="s">
+      <c r="H54" s="61"/>
+      <c r="I54" s="61"/>
+      <c r="K54" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="L54" s="54"/>
-      <c r="M54" s="54"/>
-      <c r="N54" s="54"/>
-      <c r="O54" s="55"/>
+      <c r="L54" s="63"/>
+      <c r="M54" s="63"/>
+      <c r="N54" s="63"/>
+      <c r="O54" s="64"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" s="5"/>
@@ -31662,12 +31628,12 @@
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="K68" s="52" t="s">
+      <c r="K68" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="L68" s="52"/>
-      <c r="M68" s="52"/>
-      <c r="N68" s="52"/>
+      <c r="L68" s="60"/>
+      <c r="M68" s="60"/>
+      <c r="N68" s="60"/>
       <c r="O68" s="40">
         <f>8/16</f>
         <v>0.5</v>
@@ -31675,6 +31641,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C37:E37"/>
     <mergeCell ref="K68:N68"/>
     <mergeCell ref="K19:O19"/>
     <mergeCell ref="K1:O1"/>
@@ -31683,14 +31657,6 @@
     <mergeCell ref="K15:N15"/>
     <mergeCell ref="K33:N33"/>
     <mergeCell ref="K51:N51"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C37:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -31714,755 +31680,755 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="D1" s="58" t="s">
+      <c r="A1" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="D1" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="65"/>
+      <c r="G1" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="G1" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="58"/>
+      <c r="H1" s="65"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="G2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="56" t="s">
-        <v>133</v>
+      <c r="A3" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="56" t="s">
+      <c r="A4" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="56" t="s">
-        <v>76</v>
+      <c r="G4" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="56" t="s">
-        <v>76</v>
+      <c r="A5" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="56" t="s">
-        <v>98</v>
+      <c r="A6" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="56" t="s">
-        <v>99</v>
+      <c r="A7" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="56" t="s">
-        <v>99</v>
+      <c r="A8" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="56" t="s">
-        <v>78</v>
+      <c r="D9" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="56" t="s">
-        <v>135</v>
+      <c r="A10" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="56" t="s">
-        <v>101</v>
+      <c r="A11" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="G12" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="56" t="s">
-        <v>102</v>
+      <c r="A12" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="56" t="s">
-        <v>131</v>
+      <c r="A13" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="56" t="s">
-        <v>136</v>
+      <c r="A14" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="G15" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="56" t="s">
-        <v>132</v>
+      <c r="A15" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="G16" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="56" t="s">
-        <v>105</v>
+      <c r="A16" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="48" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="56" t="s">
-        <v>128</v>
+      <c r="A17" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="48" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="G18" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="56" t="s">
-        <v>128</v>
+      <c r="A18" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="48" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="56" t="s">
-        <v>124</v>
+      <c r="A19" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="48" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="56" t="s">
-        <v>107</v>
+      <c r="A20" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="56" t="s">
-        <v>130</v>
+      <c r="A21" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="56" t="s">
-        <v>137</v>
+      <c r="A22" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="48" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="G23" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="56" t="s">
-        <v>134</v>
+      <c r="A23" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="48" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="G24" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="56" t="s">
-        <v>123</v>
+      <c r="A24" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="48" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="56" t="s">
-        <v>125</v>
+      <c r="A25" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="48" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="56" t="s">
-        <v>82</v>
+      <c r="A26" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="48" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="G27" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="56" t="s">
-        <v>126</v>
+      <c r="A27" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="48" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="G28" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H28" s="56" t="s">
+      <c r="A28" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="48" t="s">
         <v>114</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="48" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="G29" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29" s="56" t="s">
-        <v>129</v>
+      <c r="A29" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="48" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="G30" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H30" s="56" t="s">
-        <v>127</v>
+      <c r="A30" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" s="48" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="G31" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H31" s="56" t="s">
-        <v>91</v>
+      <c r="A31" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="G31" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="48" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="G32" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H32" s="56" t="s">
-        <v>121</v>
+      <c r="A32" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="48" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="G33" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H33" s="56" t="s">
-        <v>122</v>
+      <c r="A33" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="G33" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="48" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="57" t="s">
-        <v>88</v>
+      <c r="A34" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="57" t="s">
-        <v>89</v>
+      <c r="A35" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="57" t="s">
-        <v>89</v>
+      <c r="A36" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="57" t="s">
-        <v>90</v>
+      <c r="A37" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
+      <c r="A38" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
+      <c r="A39" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="57"/>
-      <c r="B40" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="57"/>
-      <c r="B41" s="57"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="57"/>
-      <c r="B42" s="57"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="49"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
+      <c r="A43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G46" s="56"/>
-      <c r="H46" s="56"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -32489,148 +32455,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="D1" s="58" t="s">
+      <c r="A1" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="D1" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="65"/>
+      <c r="G1" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="G1" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="58"/>
+      <c r="H1" s="65"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="G2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="59">
+        <v>55</v>
+      </c>
+      <c r="B3" s="50">
         <v>11.4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="59">
+        <v>55</v>
+      </c>
+      <c r="B4" s="50">
         <v>1.39</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="59">
+        <v>55</v>
+      </c>
+      <c r="B5" s="50">
         <v>14.04</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="59">
+        <v>55</v>
+      </c>
+      <c r="B6" s="50">
         <v>4.09</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="59">
+        <v>55</v>
+      </c>
+      <c r="B7" s="50">
         <v>14.61</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="59">
+        <v>55</v>
+      </c>
+      <c r="B8" s="50">
         <v>4.3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="59">
+        <v>55</v>
+      </c>
+      <c r="B9" s="50">
         <v>4.95</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="59">
+        <v>55</v>
+      </c>
+      <c r="B10" s="50">
         <v>11.3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="59">
+        <v>55</v>
+      </c>
+      <c r="B11" s="50">
         <v>6.55</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="59">
+        <v>55</v>
+      </c>
+      <c r="B12" s="50">
         <v>6.55</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="59">
+        <v>55</v>
+      </c>
+      <c r="B13" s="50">
         <v>6.55</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="59">
+        <v>55</v>
+      </c>
+      <c r="B14" s="50">
         <v>6.55</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="59">
+        <v>55</v>
+      </c>
+      <c r="B15" s="50">
         <v>6.55</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="59">
+        <v>55</v>
+      </c>
+      <c r="B16" s="50">
         <v>6.55</v>
       </c>
     </row>

--- a/query-reduction-results.xlsx
+++ b/query-reduction-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florian/projects/fh/master-thesis-graphql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D677BB45-6201-C74A-BF4E-EC49B5C5E9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF2A9AB-6279-9749-9F42-23E27D70C3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="500" windowWidth="33600" windowHeight="27500" activeTab="1" xr2:uid="{AE6E3211-F782-5F4C-B9E1-338AA6603C2D}"/>
+    <workbookView xWindow="2400" yWindow="880" windowWidth="33600" windowHeight="21380" xr2:uid="{AE6E3211-F782-5F4C-B9E1-338AA6603C2D}"/>
   </bookViews>
   <sheets>
     <sheet name="First Path" sheetId="1" r:id="rId1"/>
@@ -1168,10 +1168,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -22139,8 +22139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BF34E6-658D-5C4E-A515-16DA469C88DF}">
   <dimension ref="A1:AH58"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="106" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="R2" zoomScale="106" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5:Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23262,6 +23262,30 @@
         <f t="shared" si="4"/>
         <v>1.3866666666666665E-3</v>
       </c>
+      <c r="X14">
+        <f>1-(X10/X9)</f>
+        <v>0.10826304691618349</v>
+      </c>
+      <c r="Y14">
+        <f>1-(Y10/Y9)</f>
+        <v>7.4014979594559938E-3</v>
+      </c>
+      <c r="AB14">
+        <f>1-(AB10/AB9)</f>
+        <v>0.22500286336043984</v>
+      </c>
+      <c r="AC14">
+        <f>1-(AC10/AC9)</f>
+        <v>0.22316758831744565</v>
+      </c>
+      <c r="AF14">
+        <f>1-(AF10/AF9)</f>
+        <v>0.13091283930821207</v>
+      </c>
+      <c r="AG14">
+        <f>1-(AG10/AG9)</f>
+        <v>0.21737499090964407</v>
+      </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -25481,8 +25505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FA2F39-706D-F543-87F8-5CFD39BD3134}">
   <dimension ref="A1:AI68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AG14" sqref="AG14"/>
+    <sheetView topLeftCell="W1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4:Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26580,7 +26604,7 @@
         <v>3.8933333333333333E-4</v>
       </c>
       <c r="Y14">
-        <f>1-(Y10/Y9)</f>
+        <f>Y11/Y9</f>
         <v>0.12828713574982231</v>
       </c>
       <c r="Z14">
@@ -29428,16 +29452,16 @@
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B1" s="5"/>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="G1" s="61" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="G1" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
       <c r="K1" s="58" t="s">
         <v>36</v>
       </c>
@@ -29974,12 +29998,12 @@
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
       <c r="E15" s="35"/>
-      <c r="K15" s="60" t="s">
+      <c r="K15" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
       <c r="O15" s="40">
         <f>12/43</f>
         <v>0.27906976744186046</v>
@@ -29987,23 +30011,23 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="G19" s="61" t="s">
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="G19" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="K19" s="61" t="s">
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="K19" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
@@ -30526,12 +30550,12 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="K33" s="60" t="s">
+      <c r="K33" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="L33" s="60"/>
-      <c r="M33" s="60"/>
-      <c r="N33" s="60"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
       <c r="O33" s="40">
         <f>13/38</f>
         <v>0.34210526315789475</v>
@@ -30539,23 +30563,23 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="5"/>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="G37" s="61" t="s">
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="G37" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="K37" s="61" t="s">
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="K37" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="L37" s="61"/>
-      <c r="M37" s="61"/>
-      <c r="N37" s="61"/>
-      <c r="O37" s="61"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="60"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="5"/>
@@ -31077,12 +31101,12 @@
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="K51" s="60" t="s">
+      <c r="K51" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="L51" s="60"/>
-      <c r="M51" s="60"/>
-      <c r="N51" s="60"/>
+      <c r="L51" s="61"/>
+      <c r="M51" s="61"/>
+      <c r="N51" s="61"/>
       <c r="O51" s="40">
         <f>10/17</f>
         <v>0.58823529411764708</v>
@@ -31090,16 +31114,16 @@
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" s="5"/>
-      <c r="C54" s="61" t="s">
+      <c r="C54" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61"/>
-      <c r="G54" s="61" t="s">
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="G54" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="H54" s="61"/>
-      <c r="I54" s="61"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="60"/>
       <c r="K54" s="62" t="s">
         <v>36</v>
       </c>
@@ -31628,12 +31652,12 @@
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="K68" s="60" t="s">
+      <c r="K68" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="L68" s="60"/>
-      <c r="M68" s="60"/>
-      <c r="N68" s="60"/>
+      <c r="L68" s="61"/>
+      <c r="M68" s="61"/>
+      <c r="N68" s="61"/>
       <c r="O68" s="40">
         <f>8/16</f>
         <v>0.5</v>
@@ -31641,6 +31665,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K54:O54"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K51:N51"/>
     <mergeCell ref="C54:E54"/>
     <mergeCell ref="G54:I54"/>
     <mergeCell ref="C1:E1"/>
@@ -31649,14 +31681,6 @@
     <mergeCell ref="G37:I37"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C37:E37"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K54:O54"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K51:N51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
